--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\freelancing\personality-trait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36B3C0B-C8E6-4EB5-9ECA-ED3B8F3A54A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A479457-04B6-4AB5-8912-CCA0B9D93042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-1116" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,1005 +440,1005 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1.0572154521942141</v>
+        <v>1.074776411056519</v>
       </c>
       <c r="B2">
-        <v>3.0061571598052979</v>
+        <v>3.0018546581268311</v>
       </c>
       <c r="C2">
-        <v>3.8782567977905269</v>
+        <v>3.988160371780396</v>
       </c>
       <c r="D2">
-        <v>6.0023593902587891</v>
+        <v>5.9977812767028809</v>
       </c>
       <c r="E2">
-        <v>-5.9734806418418884E-3</v>
+        <v>1.5269048511981961E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>5.199921503663063E-2</v>
+        <v>-6.2966719269752502E-4</v>
       </c>
       <c r="B3">
-        <v>6.4700841903686523E-4</v>
+        <v>5.1638409495353699E-3</v>
       </c>
       <c r="C3">
-        <v>0.1149447336792946</v>
+        <v>-4.4228494167327881E-2</v>
       </c>
       <c r="D3">
-        <v>4.6099230647087097E-2</v>
+        <v>9.5528308302164078E-3</v>
       </c>
       <c r="E3">
-        <v>1.9526782035827639</v>
+        <v>1.5246973037719731</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.99689054489135742</v>
+        <v>1.0042088031768801</v>
       </c>
       <c r="B4">
-        <v>0.9977756142616272</v>
+        <v>0.97218883037567139</v>
       </c>
       <c r="C4">
-        <v>1.0005679130554199</v>
+        <v>0.95225584506988525</v>
       </c>
       <c r="D4">
-        <v>1.0140664577484131</v>
+        <v>1.0022653341293331</v>
       </c>
       <c r="E4">
-        <v>-1.5586614608764651E-3</v>
+        <v>1.689568161964417E-4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-3.9344169199466714E-3</v>
+        <v>3.2245628535747528E-3</v>
       </c>
       <c r="B5">
-        <v>1.002814769744873</v>
+        <v>0.95421433448791504</v>
       </c>
       <c r="C5">
-        <v>-9.8381191492080688E-5</v>
+        <v>5.6709200143814087E-3</v>
       </c>
       <c r="D5">
-        <v>0.78681409358978271</v>
+        <v>0.94501960277557373</v>
       </c>
       <c r="E5">
-        <v>1.997262716293335</v>
+        <v>2.1368625164031978</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.99635815620422363</v>
+        <v>0.99543023109436035</v>
       </c>
       <c r="B6">
-        <v>1.0093356370925901</v>
+        <v>0.99541699886322021</v>
       </c>
       <c r="C6">
-        <v>6.0066318511962891</v>
+        <v>5.9964861869812012</v>
       </c>
       <c r="D6">
-        <v>7.0027155876159668</v>
+        <v>6.9940109252929688</v>
       </c>
       <c r="E6">
-        <v>1.0026344060897829</v>
+        <v>1.005170464515686</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1.6148127615451811E-3</v>
+        <v>-2.20513716340065E-3</v>
       </c>
       <c r="B7">
-        <v>7.071569561958313E-3</v>
+        <v>-3.6357343196868901E-3</v>
       </c>
       <c r="C7">
-        <v>-5.3715012036263943E-3</v>
+        <v>6.1020180583000183E-3</v>
       </c>
       <c r="D7">
-        <v>-1.5855045989155769E-2</v>
+        <v>-9.2270690947771072E-3</v>
       </c>
       <c r="E7">
-        <v>7.0044436454772949</v>
+        <v>7.0202088356018066</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1.8786478787660599E-2</v>
+        <v>2.8943028301000599E-2</v>
       </c>
       <c r="B8">
-        <v>3.3278018236160278E-3</v>
+        <v>5.5177129805088043E-2</v>
       </c>
       <c r="C8">
-        <v>-2.413978241384029E-2</v>
+        <v>-0.18652412295341489</v>
       </c>
       <c r="D8">
-        <v>2.751736156642437E-2</v>
+        <v>-2.657251432538033E-3</v>
       </c>
       <c r="E8">
-        <v>3.9112873077392578</v>
+        <v>3.7478847503662109</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>-1.101639121770859E-3</v>
+        <v>6.69870525598526E-4</v>
       </c>
       <c r="B9">
-        <v>1.0042657852172849</v>
+        <v>1.001576900482178</v>
       </c>
       <c r="C9">
-        <v>0.99928736686706543</v>
+        <v>1.261993885040283</v>
       </c>
       <c r="D9">
-        <v>2.0035064220428471</v>
+        <v>1.9961661100387571</v>
       </c>
       <c r="E9">
-        <v>-2.8884038329124451E-3</v>
+        <v>-3.0382797122001648E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>-1.155804842710495E-3</v>
+        <v>-1.96993313729763E-2</v>
       </c>
       <c r="B10">
-        <v>1.0081731081008909</v>
+        <v>0.96811342239379883</v>
       </c>
       <c r="C10">
-        <v>1.9996379613876341</v>
+        <v>1.9414685964584351</v>
       </c>
       <c r="D10">
-        <v>2.99522852897644</v>
+        <v>2.9760677814483638</v>
       </c>
       <c r="E10">
-        <v>3.9990518093109131</v>
+        <v>3.9966592788696289</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>-2.6211515069007868E-4</v>
+        <v>-2.1444261074066159E-4</v>
       </c>
       <c r="B11">
-        <v>3.9324164390563958E-5</v>
+        <v>3.5960599780082703E-4</v>
       </c>
       <c r="C11">
-        <v>-4.9436138942837715E-4</v>
+        <v>-6.5407902002334595E-4</v>
       </c>
       <c r="D11">
-        <v>-3.1197629868984222E-4</v>
+        <v>-5.6827440857887268E-4</v>
       </c>
       <c r="E11">
-        <v>-3.1102448701858521E-4</v>
+        <v>-4.3410807847976678E-5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>-1.8469356000423429E-3</v>
+        <v>1.1829324066638951E-3</v>
       </c>
       <c r="B12">
-        <v>9.997636079788208E-4</v>
+        <v>8.3813071250915527E-4</v>
       </c>
       <c r="C12">
-        <v>0.99979263544082642</v>
+        <v>0.99565494060516357</v>
       </c>
       <c r="D12">
-        <v>1.0001673698425291</v>
+        <v>0.9972691535949707</v>
       </c>
       <c r="E12">
-        <v>-1.4762207865715029E-3</v>
+        <v>5.6086666882038123E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>-2.6211515069007868E-4</v>
+        <v>-2.1444261074066159E-4</v>
       </c>
       <c r="B13">
-        <v>3.9324164390563958E-5</v>
+        <v>3.5960599780082703E-4</v>
       </c>
       <c r="C13">
-        <v>-4.9436138942837715E-4</v>
+        <v>-6.5407902002334595E-4</v>
       </c>
       <c r="D13">
-        <v>-3.1197629868984222E-4</v>
+        <v>-5.6827440857887268E-4</v>
       </c>
       <c r="E13">
-        <v>-3.1102448701858521E-4</v>
+        <v>-4.3410807847976678E-5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>-2.6211515069007868E-4</v>
+        <v>-2.1444261074066159E-4</v>
       </c>
       <c r="B14">
-        <v>3.9324164390563958E-5</v>
+        <v>3.5960599780082703E-4</v>
       </c>
       <c r="C14">
-        <v>-4.9436138942837715E-4</v>
+        <v>-6.5407902002334595E-4</v>
       </c>
       <c r="D14">
-        <v>-3.1197629868984222E-4</v>
+        <v>-5.6827440857887268E-4</v>
       </c>
       <c r="E14">
-        <v>-3.1102448701858521E-4</v>
+        <v>-4.3410807847976678E-5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.9980473518371582</v>
+        <v>0.99895238876342773</v>
       </c>
       <c r="B15">
-        <v>1.000940203666687</v>
+        <v>1.0014051198959351</v>
       </c>
       <c r="C15">
-        <v>-1.8263375386595729E-4</v>
+        <v>-8.7726488709449768E-4</v>
       </c>
       <c r="D15">
-        <v>-1.5226472169160841E-3</v>
+        <v>-1.1921394616365431E-3</v>
       </c>
       <c r="E15">
-        <v>-9.1344118118286133E-4</v>
+        <v>-2.1578595042228699E-3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>-2.6211515069007868E-4</v>
+        <v>-2.1444261074066159E-4</v>
       </c>
       <c r="B16">
-        <v>3.9324164390563958E-5</v>
+        <v>3.5960599780082703E-4</v>
       </c>
       <c r="C16">
-        <v>-4.9436138942837715E-4</v>
+        <v>-6.5407902002334595E-4</v>
       </c>
       <c r="D16">
-        <v>-3.1197629868984222E-4</v>
+        <v>-5.6827440857887268E-4</v>
       </c>
       <c r="E16">
-        <v>-3.1102448701858521E-4</v>
+        <v>-4.3410807847976678E-5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>-1.8469356000423429E-3</v>
+        <v>1.1829324066638951E-3</v>
       </c>
       <c r="B17">
-        <v>9.997636079788208E-4</v>
+        <v>8.3813071250915527E-4</v>
       </c>
       <c r="C17">
-        <v>0.99979263544082642</v>
+        <v>0.99565494060516357</v>
       </c>
       <c r="D17">
-        <v>1.0001673698425291</v>
+        <v>0.9972691535949707</v>
       </c>
       <c r="E17">
-        <v>-1.4762207865715029E-3</v>
+        <v>5.6086666882038123E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>-1.8469356000423429E-3</v>
+        <v>1.1829324066638951E-3</v>
       </c>
       <c r="B18">
-        <v>9.997636079788208E-4</v>
+        <v>8.3813071250915527E-4</v>
       </c>
       <c r="C18">
-        <v>0.99979263544082642</v>
+        <v>0.99565494060516357</v>
       </c>
       <c r="D18">
-        <v>1.0001673698425291</v>
+        <v>0.9972691535949707</v>
       </c>
       <c r="E18">
-        <v>-1.4762207865715029E-3</v>
+        <v>5.6086666882038123E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>-1.101639121770859E-3</v>
+        <v>6.69870525598526E-4</v>
       </c>
       <c r="B19">
-        <v>1.0042657852172849</v>
+        <v>1.001576900482178</v>
       </c>
       <c r="C19">
-        <v>0.99928736686706543</v>
+        <v>1.261993885040283</v>
       </c>
       <c r="D19">
-        <v>2.0035064220428471</v>
+        <v>1.9961661100387571</v>
       </c>
       <c r="E19">
-        <v>-2.8884038329124451E-3</v>
+        <v>-3.0382797122001648E-3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>-2.228911966085434E-3</v>
+        <v>1.744348555803299E-3</v>
       </c>
       <c r="B20">
-        <v>4.0613114833831793E-4</v>
+        <v>-1.797204278409481E-2</v>
       </c>
       <c r="C20">
-        <v>1.0014995336532591</v>
+        <v>1.0002850294113159</v>
       </c>
       <c r="D20">
-        <v>0.99641877412796021</v>
+        <v>0.99474012851715088</v>
       </c>
       <c r="E20">
-        <v>0.99950742721557617</v>
+        <v>1.1933708190917971</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>-2.6211515069007868E-4</v>
+        <v>-2.1444261074066159E-4</v>
       </c>
       <c r="B21">
-        <v>3.9324164390563958E-5</v>
+        <v>3.5960599780082703E-4</v>
       </c>
       <c r="C21">
-        <v>-4.9436138942837715E-4</v>
+        <v>-6.5407902002334595E-4</v>
       </c>
       <c r="D21">
-        <v>-3.1197629868984222E-4</v>
+        <v>-5.6827440857887268E-4</v>
       </c>
       <c r="E21">
-        <v>-3.1102448701858521E-4</v>
+        <v>-4.3410807847976678E-5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>-2.6211515069007868E-4</v>
+        <v>-2.1444261074066159E-4</v>
       </c>
       <c r="B22">
-        <v>3.9324164390563958E-5</v>
+        <v>3.5960599780082703E-4</v>
       </c>
       <c r="C22">
-        <v>-4.9436138942837715E-4</v>
+        <v>-6.5407902002334595E-4</v>
       </c>
       <c r="D22">
-        <v>-3.1197629868984222E-4</v>
+        <v>-5.6827440857887268E-4</v>
       </c>
       <c r="E22">
-        <v>-3.1102448701858521E-4</v>
+        <v>-4.3410807847976678E-5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.99796009063720703</v>
+        <v>1.0012276172637939</v>
       </c>
       <c r="B23">
-        <v>0.4767346978187561</v>
+        <v>0.96762323379516602</v>
       </c>
       <c r="C23">
-        <v>-3.7244460545480251E-3</v>
+        <v>-0.14275716245174411</v>
       </c>
       <c r="D23">
-        <v>0.14148722589015961</v>
+        <v>4.5905429869890213E-3</v>
       </c>
       <c r="E23">
-        <v>3.0150599479675289</v>
+        <v>3.0067446231842041</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>-2.6211515069007868E-4</v>
+        <v>-2.1444261074066159E-4</v>
       </c>
       <c r="B24">
-        <v>3.9324164390563958E-5</v>
+        <v>3.5960599780082703E-4</v>
       </c>
       <c r="C24">
-        <v>-4.9436138942837715E-4</v>
+        <v>-6.5407902002334595E-4</v>
       </c>
       <c r="D24">
-        <v>-3.1197629868984222E-4</v>
+        <v>-5.6827440857887268E-4</v>
       </c>
       <c r="E24">
-        <v>-3.1102448701858521E-4</v>
+        <v>-4.3410807847976678E-5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>-2.6211515069007868E-4</v>
+        <v>-2.1444261074066159E-4</v>
       </c>
       <c r="B25">
-        <v>3.9324164390563958E-5</v>
+        <v>3.5960599780082703E-4</v>
       </c>
       <c r="C25">
-        <v>-4.9436138942837715E-4</v>
+        <v>-6.5407902002334595E-4</v>
       </c>
       <c r="D25">
-        <v>-3.1197629868984222E-4</v>
+        <v>-5.6827440857887268E-4</v>
       </c>
       <c r="E25">
-        <v>-3.1102448701858521E-4</v>
+        <v>-4.3410807847976678E-5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>-4.1503943502902976E-3</v>
+        <v>-0.150385856628418</v>
       </c>
       <c r="B26">
-        <v>2.2526085376739499E-4</v>
+        <v>-9.1411173343658447E-4</v>
       </c>
       <c r="C26">
-        <v>-3.564735408872366E-3</v>
+        <v>1.7222277820110321E-3</v>
       </c>
       <c r="D26">
-        <v>-6.9077182561159134E-3</v>
+        <v>6.2532108277082443E-3</v>
       </c>
       <c r="E26">
-        <v>3.0586740970611568</v>
+        <v>3.002282857894897</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1.0103248059749599E-3</v>
+        <v>-1.059796661138535E-3</v>
       </c>
       <c r="B27">
-        <v>2.6023983955383301E-3</v>
+        <v>0.1013689041137695</v>
       </c>
       <c r="C27">
-        <v>-1.772587653249502E-3</v>
+        <v>2.7433527633547779E-2</v>
       </c>
       <c r="D27">
-        <v>-3.3758301287889481E-3</v>
+        <v>-1.6158055514097209E-3</v>
       </c>
       <c r="E27">
-        <v>1.002684950828552</v>
+        <v>1.0038455724716191</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>-2.6211515069007868E-4</v>
+        <v>-2.1444261074066159E-4</v>
       </c>
       <c r="B28">
-        <v>3.9324164390563958E-5</v>
+        <v>3.5960599780082703E-4</v>
       </c>
       <c r="C28">
-        <v>-4.9436138942837715E-4</v>
+        <v>-6.5407902002334595E-4</v>
       </c>
       <c r="D28">
-        <v>-3.1197629868984222E-4</v>
+        <v>-5.6827440857887268E-4</v>
       </c>
       <c r="E28">
-        <v>-3.1102448701858521E-4</v>
+        <v>-4.3410807847976678E-5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>-2.6211515069007868E-4</v>
+        <v>-2.1444261074066159E-4</v>
       </c>
       <c r="B29">
-        <v>3.9324164390563958E-5</v>
+        <v>3.5960599780082703E-4</v>
       </c>
       <c r="C29">
-        <v>-4.9436138942837715E-4</v>
+        <v>-6.5407902002334595E-4</v>
       </c>
       <c r="D29">
-        <v>-3.1197629868984222E-4</v>
+        <v>-5.6827440857887268E-4</v>
       </c>
       <c r="E29">
-        <v>-3.1102448701858521E-4</v>
+        <v>-4.3410807847976678E-5</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>-2.6211515069007868E-4</v>
+        <v>-2.1444261074066159E-4</v>
       </c>
       <c r="B30">
-        <v>3.9324164390563958E-5</v>
+        <v>3.5960599780082703E-4</v>
       </c>
       <c r="C30">
-        <v>-4.9436138942837715E-4</v>
+        <v>-6.5407902002334595E-4</v>
       </c>
       <c r="D30">
-        <v>-3.1197629868984222E-4</v>
+        <v>-5.6827440857887268E-4</v>
       </c>
       <c r="E30">
-        <v>-3.1102448701858521E-4</v>
+        <v>-4.3410807847976678E-5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>-2.6211515069007868E-4</v>
+        <v>-2.1444261074066159E-4</v>
       </c>
       <c r="B31">
-        <v>3.9324164390563958E-5</v>
+        <v>3.5960599780082703E-4</v>
       </c>
       <c r="C31">
-        <v>-4.9436138942837715E-4</v>
+        <v>-6.5407902002334595E-4</v>
       </c>
       <c r="D31">
-        <v>-3.1197629868984222E-4</v>
+        <v>-5.6827440857887268E-4</v>
       </c>
       <c r="E31">
-        <v>-3.1102448701858521E-4</v>
+        <v>-4.3410807847976678E-5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>-2.6020370423793788E-3</v>
+        <v>1.4557316899299619E-4</v>
       </c>
       <c r="B32">
-        <v>2.6436150074005132E-4</v>
+        <v>-3.0522421002388E-4</v>
       </c>
       <c r="C32">
-        <v>0.99729108810424805</v>
+        <v>0.99814391136169434</v>
       </c>
       <c r="D32">
-        <v>0.99743479490280151</v>
+        <v>0.9978255033493042</v>
       </c>
       <c r="E32">
-        <v>2.001774787902832</v>
+        <v>1.9939630031585689</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>1.0025860071182251</v>
+        <v>1.0029997825622561</v>
       </c>
       <c r="B33">
-        <v>1.871034502983093E-3</v>
+        <v>-1.777380704879761E-3</v>
       </c>
       <c r="C33">
-        <v>-2.2825649939477439E-3</v>
+        <v>1.625530421733856E-3</v>
       </c>
       <c r="D33">
-        <v>-8.7863076478242874E-3</v>
+        <v>-4.5507866889238358E-3</v>
       </c>
       <c r="E33">
-        <v>4.000739574432373</v>
+        <v>4.0107922554016113</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>-7.6676607131958008E-2</v>
+        <v>-4.1789665818214423E-2</v>
       </c>
       <c r="B34">
-        <v>0.13501770794391629</v>
+        <v>2.7816250920295719E-2</v>
       </c>
       <c r="C34">
-        <v>-1.2257327325642109E-3</v>
+        <v>3.010405600070953E-2</v>
       </c>
       <c r="D34">
-        <v>1.9141381606459621E-2</v>
+        <v>-1.420196145772934E-3</v>
       </c>
       <c r="E34">
-        <v>1.06049656867981</v>
+        <v>0.9968993067741394</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>-2.6020370423793788E-3</v>
+        <v>1.4557316899299619E-4</v>
       </c>
       <c r="B35">
-        <v>2.6436150074005132E-4</v>
+        <v>-3.0522421002388E-4</v>
       </c>
       <c r="C35">
-        <v>0.99729108810424805</v>
+        <v>0.99814391136169434</v>
       </c>
       <c r="D35">
-        <v>0.99743479490280151</v>
+        <v>0.9978255033493042</v>
       </c>
       <c r="E35">
-        <v>2.001774787902832</v>
+        <v>1.9939630031585689</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>-2.6211515069007868E-4</v>
+        <v>-2.1444261074066159E-4</v>
       </c>
       <c r="B36">
-        <v>3.9324164390563958E-5</v>
+        <v>3.5960599780082703E-4</v>
       </c>
       <c r="C36">
-        <v>-4.9436138942837715E-4</v>
+        <v>-6.5407902002334595E-4</v>
       </c>
       <c r="D36">
-        <v>-3.1197629868984222E-4</v>
+        <v>-5.6827440857887268E-4</v>
       </c>
       <c r="E36">
-        <v>-3.1102448701858521E-4</v>
+        <v>-4.3410807847976678E-5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>-2.6020370423793788E-3</v>
+        <v>1.4557316899299619E-4</v>
       </c>
       <c r="B37">
-        <v>2.6436150074005132E-4</v>
+        <v>-3.0522421002388E-4</v>
       </c>
       <c r="C37">
-        <v>0.99729108810424805</v>
+        <v>0.99814391136169434</v>
       </c>
       <c r="D37">
-        <v>0.99743479490280151</v>
+        <v>0.9978255033493042</v>
       </c>
       <c r="E37">
-        <v>2.001774787902832</v>
+        <v>1.9939630031585689</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.9980473518371582</v>
+        <v>0.99895238876342773</v>
       </c>
       <c r="B38">
-        <v>1.000940203666687</v>
+        <v>1.0014051198959351</v>
       </c>
       <c r="C38">
-        <v>-1.8263375386595729E-4</v>
+        <v>-8.7726488709449768E-4</v>
       </c>
       <c r="D38">
-        <v>-1.5226472169160841E-3</v>
+        <v>-1.1921394616365431E-3</v>
       </c>
       <c r="E38">
-        <v>-9.1344118118286133E-4</v>
+        <v>-2.1578595042228699E-3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>-2.6211515069007868E-4</v>
+        <v>-2.1444261074066159E-4</v>
       </c>
       <c r="B39">
-        <v>3.9324164390563958E-5</v>
+        <v>3.5960599780082703E-4</v>
       </c>
       <c r="C39">
-        <v>-4.9436138942837715E-4</v>
+        <v>-6.5407902002334595E-4</v>
       </c>
       <c r="D39">
-        <v>-3.1197629868984222E-4</v>
+        <v>-5.6827440857887268E-4</v>
       </c>
       <c r="E39">
-        <v>-3.1102448701858521E-4</v>
+        <v>-4.3410807847976678E-5</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>-2.6211515069007868E-4</v>
+        <v>-2.1444261074066159E-4</v>
       </c>
       <c r="B40">
-        <v>3.9324164390563958E-5</v>
+        <v>3.5960599780082703E-4</v>
       </c>
       <c r="C40">
-        <v>-4.9436138942837715E-4</v>
+        <v>-6.5407902002334595E-4</v>
       </c>
       <c r="D40">
-        <v>-3.1197629868984222E-4</v>
+        <v>-5.6827440857887268E-4</v>
       </c>
       <c r="E40">
-        <v>-3.1102448701858521E-4</v>
+        <v>-4.3410807847976678E-5</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>-2.6211515069007868E-4</v>
+        <v>-2.1444261074066159E-4</v>
       </c>
       <c r="B41">
-        <v>3.9324164390563958E-5</v>
+        <v>3.5960599780082703E-4</v>
       </c>
       <c r="C41">
-        <v>-4.9436138942837715E-4</v>
+        <v>-6.5407902002334595E-4</v>
       </c>
       <c r="D41">
-        <v>-3.1197629868984222E-4</v>
+        <v>-5.6827440857887268E-4</v>
       </c>
       <c r="E41">
-        <v>-3.1102448701858521E-4</v>
+        <v>-4.3410807847976678E-5</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0.99979841709136963</v>
+        <v>0.84369289875030518</v>
       </c>
       <c r="B42">
-        <v>0.1088684946298599</v>
+        <v>1.508936285972595E-3</v>
       </c>
       <c r="C42">
-        <v>-2.9878830537199969E-4</v>
+        <v>3.5831164568662643E-2</v>
       </c>
       <c r="D42">
-        <v>-9.4184447079896927E-3</v>
+        <v>-2.3572081699967381E-2</v>
       </c>
       <c r="E42">
-        <v>1.9988304376602171</v>
+        <v>1.9034814834594731</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>1.088334441184998</v>
+        <v>0.95598173141479492</v>
       </c>
       <c r="B43">
-        <v>2.0036606788635249</v>
+        <v>2.0005407333374019</v>
       </c>
       <c r="C43">
-        <v>2.9165363311767578</v>
+        <v>2.9933333396911621</v>
       </c>
       <c r="D43">
-        <v>3.912449836730957</v>
+        <v>4.1405987739562988</v>
       </c>
       <c r="E43">
-        <v>-1.457624137401581E-3</v>
+        <v>-1.382862776517868E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>2.113137394189835E-3</v>
+        <v>-3.0298363417387009E-2</v>
       </c>
       <c r="B44">
-        <v>-2.6059150695800781E-4</v>
+        <v>3.9291888475418091E-2</v>
       </c>
       <c r="C44">
-        <v>9.9530570209026337E-2</v>
+        <v>-1.984532922506332E-3</v>
       </c>
       <c r="D44">
-        <v>-7.7498126775026321E-3</v>
+        <v>-3.4461710602045059E-3</v>
       </c>
       <c r="E44">
-        <v>1.998090386390686</v>
+        <v>1.855035543441772</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>-2.6211515069007868E-4</v>
+        <v>-2.1444261074066159E-4</v>
       </c>
       <c r="B45">
-        <v>3.9324164390563958E-5</v>
+        <v>3.5960599780082703E-4</v>
       </c>
       <c r="C45">
-        <v>-4.9436138942837715E-4</v>
+        <v>-6.5407902002334595E-4</v>
       </c>
       <c r="D45">
-        <v>-3.1197629868984222E-4</v>
+        <v>-5.6827440857887268E-4</v>
       </c>
       <c r="E45">
-        <v>-3.1102448701858521E-4</v>
+        <v>-4.3410807847976678E-5</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>-2.2237859666347499E-3</v>
+        <v>0.25176912546157842</v>
       </c>
       <c r="B46">
-        <v>0.14405794441699979</v>
+        <v>-4.8930943012237549E-4</v>
       </c>
       <c r="C46">
-        <v>1.0366061925888059</v>
+        <v>1.000618696212769</v>
       </c>
       <c r="D46">
-        <v>0.99993115663528442</v>
+        <v>0.99808621406555176</v>
       </c>
       <c r="E46">
-        <v>1.183493375778198</v>
+        <v>0.8446965217590332</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>-2.6211515069007868E-4</v>
+        <v>-2.1444261074066159E-4</v>
       </c>
       <c r="B47">
-        <v>3.9324164390563958E-5</v>
+        <v>3.5960599780082703E-4</v>
       </c>
       <c r="C47">
-        <v>-4.9436138942837715E-4</v>
+        <v>-6.5407902002334595E-4</v>
       </c>
       <c r="D47">
-        <v>-3.1197629868984222E-4</v>
+        <v>-5.6827440857887268E-4</v>
       </c>
       <c r="E47">
-        <v>-3.1102448701858521E-4</v>
+        <v>-4.3410807847976678E-5</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>-2.6211515069007868E-4</v>
+        <v>-2.1444261074066159E-4</v>
       </c>
       <c r="B48">
-        <v>3.9324164390563958E-5</v>
+        <v>3.5960599780082703E-4</v>
       </c>
       <c r="C48">
-        <v>-4.9436138942837715E-4</v>
+        <v>-6.5407902002334595E-4</v>
       </c>
       <c r="D48">
-        <v>-3.1197629868984222E-4</v>
+        <v>-5.6827440857887268E-4</v>
       </c>
       <c r="E48">
-        <v>-3.1102448701858521E-4</v>
+        <v>-4.3410807847976678E-5</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>-2.6211515069007868E-4</v>
+        <v>-2.1444261074066159E-4</v>
       </c>
       <c r="B49">
-        <v>3.9324164390563958E-5</v>
+        <v>3.5960599780082703E-4</v>
       </c>
       <c r="C49">
-        <v>-4.9436138942837715E-4</v>
+        <v>-6.5407902002334595E-4</v>
       </c>
       <c r="D49">
-        <v>-3.1197629868984222E-4</v>
+        <v>-5.6827440857887268E-4</v>
       </c>
       <c r="E49">
-        <v>-3.1102448701858521E-4</v>
+        <v>-4.3410807847976678E-5</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>-2.689559012651443E-3</v>
+        <v>3.4135952591896063E-4</v>
       </c>
       <c r="B50">
-        <v>-0.13849599659442899</v>
+        <v>-1.65699627250433E-2</v>
       </c>
       <c r="C50">
-        <v>-8.6003150790929794E-3</v>
+        <v>9.6556171774864197E-4</v>
       </c>
       <c r="D50">
-        <v>-1.61138940602541E-2</v>
+        <v>6.0684360563755042E-2</v>
       </c>
       <c r="E50">
-        <v>1.0999273061752319</v>
+        <v>1.0065227746963501</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>-2.6211515069007868E-4</v>
+        <v>-2.1444261074066159E-4</v>
       </c>
       <c r="B51">
-        <v>3.9324164390563958E-5</v>
+        <v>3.5960599780082703E-4</v>
       </c>
       <c r="C51">
-        <v>-4.9436138942837715E-4</v>
+        <v>-6.5407902002334595E-4</v>
       </c>
       <c r="D51">
-        <v>-3.1197629868984222E-4</v>
+        <v>-5.6827440857887268E-4</v>
       </c>
       <c r="E51">
-        <v>-3.1102448701858521E-4</v>
+        <v>-4.3410807847976678E-5</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>-6.2547586858272552E-3</v>
+        <v>1.5804804861545561E-3</v>
       </c>
       <c r="B52">
-        <v>1.001157283782959</v>
+        <v>1.123688817024231</v>
       </c>
       <c r="C52">
-        <v>1.052287697792053</v>
+        <v>1.0086656808853149</v>
       </c>
       <c r="D52">
-        <v>1.9368448257446289</v>
+        <v>2.0116887092590332</v>
       </c>
       <c r="E52">
-        <v>4.0012240409851074</v>
+        <v>4.0079360008239746</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>-6.4431101083755493E-2</v>
+        <v>-1.7346926033496861E-3</v>
       </c>
       <c r="B53">
-        <v>4.4693350791931152E-3</v>
+        <v>4.9985945224761963E-4</v>
       </c>
       <c r="C53">
-        <v>2.0328578948974609</v>
+        <v>1.768456339836121</v>
       </c>
       <c r="D53">
-        <v>1.946887850761414</v>
+        <v>2.024208784103394</v>
       </c>
       <c r="E53">
-        <v>-4.1844360530376427E-2</v>
+        <v>0.20404860377311709</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>-2.6020370423793788E-3</v>
+        <v>1.4557316899299619E-4</v>
       </c>
       <c r="B54">
-        <v>2.6436150074005132E-4</v>
+        <v>-3.0522421002388E-4</v>
       </c>
       <c r="C54">
-        <v>0.99729108810424805</v>
+        <v>0.99814391136169434</v>
       </c>
       <c r="D54">
-        <v>0.99743479490280151</v>
+        <v>0.9978255033493042</v>
       </c>
       <c r="E54">
-        <v>2.001774787902832</v>
+        <v>1.9939630031585689</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>-5.2829068154096603E-2</v>
+        <v>0.12092623114585881</v>
       </c>
       <c r="B55">
-        <v>0.96768254041671753</v>
+        <v>0.96898782253265381</v>
       </c>
       <c r="C55">
-        <v>2.0168623924255371</v>
+        <v>2.0351705551147461</v>
       </c>
       <c r="D55">
-        <v>3.0307013988494869</v>
+        <v>2.941109418869019</v>
       </c>
       <c r="E55">
-        <v>2.1966025233268742E-3</v>
+        <v>-1.3499133288860319E-2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>1.9949542284011841</v>
+        <v>1.9951484203338621</v>
       </c>
       <c r="B56">
-        <v>2.005341768264771</v>
+        <v>2.0013141632080078</v>
       </c>
       <c r="C56">
-        <v>2.011162281036377</v>
+        <v>1.993280410766602</v>
       </c>
       <c r="D56">
-        <v>3.002955436706543</v>
+        <v>2.9964454174041748</v>
       </c>
       <c r="E56">
-        <v>-1.9090995192527771E-3</v>
+        <v>8.0272331833839417E-3</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>-2.6211515069007868E-4</v>
+        <v>-2.1444261074066159E-4</v>
       </c>
       <c r="B57">
-        <v>3.9324164390563958E-5</v>
+        <v>3.5960599780082703E-4</v>
       </c>
       <c r="C57">
-        <v>-4.9436138942837715E-4</v>
+        <v>-6.5407902002334595E-4</v>
       </c>
       <c r="D57">
-        <v>-3.1197629868984222E-4</v>
+        <v>-5.6827440857887268E-4</v>
       </c>
       <c r="E57">
-        <v>-3.1102448701858521E-4</v>
+        <v>-4.3410807847976678E-5</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>1.0103248059749599E-3</v>
+        <v>-1.059796661138535E-3</v>
       </c>
       <c r="B58">
-        <v>2.6023983955383301E-3</v>
+        <v>0.1013689041137695</v>
       </c>
       <c r="C58">
-        <v>-1.772587653249502E-3</v>
+        <v>2.7433527633547779E-2</v>
       </c>
       <c r="D58">
-        <v>-3.3758301287889481E-3</v>
+        <v>-1.6158055514097209E-3</v>
       </c>
       <c r="E58">
-        <v>1.002684950828552</v>
+        <v>1.0038455724716191</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>0.9980473518371582</v>
+        <v>0.99895238876342773</v>
       </c>
       <c r="B59">
-        <v>1.000940203666687</v>
+        <v>1.0014051198959351</v>
       </c>
       <c r="C59">
-        <v>-1.8263375386595729E-4</v>
+        <v>-8.7726488709449768E-4</v>
       </c>
       <c r="D59">
-        <v>-1.5226472169160841E-3</v>
+        <v>-1.1921394616365431E-3</v>
       </c>
       <c r="E59">
-        <v>-9.1344118118286133E-4</v>
+        <v>-2.1578595042228699E-3</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>-1.8469356000423429E-3</v>
+        <v>1.1829324066638951E-3</v>
       </c>
       <c r="B60">
-        <v>9.997636079788208E-4</v>
+        <v>8.3813071250915527E-4</v>
       </c>
       <c r="C60">
-        <v>0.99979263544082642</v>
+        <v>0.99565494060516357</v>
       </c>
       <c r="D60">
-        <v>1.0001673698425291</v>
+        <v>0.9972691535949707</v>
       </c>
       <c r="E60">
-        <v>-1.4762207865715029E-3</v>
+        <v>5.6086666882038123E-2</v>
       </c>
     </row>
   </sheetData>
